--- a/data/trans_dic/PCS12_SP_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,66%</t>
+          <t>33,92%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>27,66%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,78; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,82; 28,32</t>
+          <t>17,26; 26,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,16; 40,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>30,19; 38,99</t>
+          <t>29,37; 38,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,96; 31,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,96; 32,34</t>
+          <t>24,48; 30,99</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>26,17%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>19,1; 27,47</t>
+          <t>18,27; 26,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 34,45</t>
+          <t>27,36; 34,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,17; 29,74</t>
+          <t>23,45; 28,95</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,39%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,0%</t>
+          <t>28,51%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,91; 31,26</t>
+          <t>21,25; 30,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,33; 35,47</t>
+          <t>27,14; 35,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,82; 31,97</t>
+          <t>25,32; 31,42</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>25,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>32,72%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,87%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>26,52%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,28; 24,87</t>
+          <t>17,49; 26,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,52; 32,55</t>
+          <t>19,85; 31,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,45; 39,75</t>
+          <t>32,32; 42,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,9; 37,76</t>
+          <t>16,4; 34,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,43; 31,42</t>
+          <t>26,21; 32,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>25,77; 33,49</t>
+          <t>17,96; 30,87</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>20,29%</t>
+          <t>20,4%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,72; 20,26</t>
+          <t>11,72; 20,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,76</t>
+          <t>21,18; 28,94</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,36</t>
+          <t>17,78; 23,5</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,33%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,13%</t>
+          <t>38,1%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>33,41%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,91; 34,31</t>
+          <t>24,48; 33,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,35; 42,76</t>
+          <t>33,39; 42,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,58; 37,44</t>
+          <t>30,24; 37,12</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>23,05%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,14%</t>
+          <t>21,95%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,6; 24,55</t>
+          <t>16,82; 23,67</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,3; 31,68</t>
+          <t>11,85; 31,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>18,13; 27,06</t>
+          <t>13,41; 26,22</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>38,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>26,86%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>33,61%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,83; 37,7</t>
+          <t>16,01; 70,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,05; 29,74</t>
+          <t>24,21; 29,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,16; 33,27</t>
+          <t>21,37; 61,0</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>29,62%</t>
+          <t>28,14%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>26,53%</t>
+          <t>27,63%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,16</t>
+          <t>21,1; 42,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>26,52; 31,33</t>
+          <t>22,84; 30,68</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>25,13; 28,25</t>
+          <t>24,41; 36,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R3-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R3-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,7; 21,64</t>
+          <t>12,58; 21,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,78; 26,42</t>
+          <t>16,39; 26,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,14; 26,3</t>
+          <t>15,92; 25,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,26; 26,85</t>
+          <t>17,48; 27,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,68; 29,74</t>
+          <t>19,19; 29,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,16; 40,95</t>
+          <t>29,24; 40,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,6; 40,92</t>
+          <t>29,19; 40,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,37; 38,13</t>
+          <t>29,42; 39,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 23,97</t>
+          <t>17,02; 24,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,96; 31,76</t>
+          <t>24,34; 31,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,89; 31,4</t>
+          <t>24,18; 31,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,48; 30,99</t>
+          <t>24,51; 31,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,59; 19,45</t>
+          <t>12,75; 19,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,13; 19,42</t>
+          <t>12,09; 19,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,4</t>
+          <t>10,76; 16,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,27; 26,43</t>
+          <t>17,99; 26,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,97; 34,73</t>
+          <t>26,69; 34,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 32,85</t>
+          <t>24,68; 32,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,31; 25,99</t>
+          <t>18,51; 26,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>27,36; 34,15</t>
+          <t>26,81; 33,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 26,19</t>
+          <t>20,47; 26,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,39; 24,75</t>
+          <t>18,93; 24,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 20,52</t>
+          <t>15,55; 20,35</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,45; 28,95</t>
+          <t>23,37; 28,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,13</t>
+          <t>9,84; 17,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,47</t>
+          <t>12,34; 20,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,41; 17,88</t>
+          <t>10,69; 17,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,25; 30,49</t>
+          <t>21,75; 30,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,78; 33,31</t>
+          <t>23,11; 33,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,77; 30,35</t>
+          <t>21,07; 31,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,47; 24,64</t>
+          <t>14,94; 24,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>27,14; 35,31</t>
+          <t>27,11; 34,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,1; 24,46</t>
+          <t>17,88; 24,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,8; 24,5</t>
+          <t>17,82; 24,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,81; 19,83</t>
+          <t>14,18; 20,06</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>25,32; 31,42</t>
+          <t>25,41; 31,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,64; 18,12</t>
+          <t>10,53; 17,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,49; 26,4</t>
+          <t>17,5; 26,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 27,97</t>
+          <t>18,89; 27,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,85; 31,79</t>
+          <t>19,71; 30,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 32,69</t>
+          <t>23,32; 32,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,32; 42,23</t>
+          <t>32,4; 42,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,55; 41,97</t>
+          <t>31,59; 41,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 34,77</t>
+          <t>17,18; 34,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,3; 23,95</t>
+          <t>18,1; 24,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,21; 32,83</t>
+          <t>26,16; 32,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,48; 33,48</t>
+          <t>26,33; 33,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 30,87</t>
+          <t>19,27; 31,07</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,5; 18,73</t>
+          <t>9,12; 18,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 28,88</t>
+          <t>17,11; 29,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,03; 19,41</t>
+          <t>10,2; 19,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>11,72; 20,2</t>
+          <t>11,7; 20,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,1; 27,63</t>
+          <t>15,82; 27,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>32,03; 44,91</t>
+          <t>31,39; 45,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 28,98</t>
+          <t>17,43; 28,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,18; 28,94</t>
+          <t>21,18; 28,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,04; 21,89</t>
+          <t>14,17; 21,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,42; 35,57</t>
+          <t>26,18; 35,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 22,81</t>
+          <t>15,27; 22,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 23,5</t>
+          <t>17,76; 23,18</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,01; 21,68</t>
+          <t>13,04; 22,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,78; 27,73</t>
+          <t>17,51; 27,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,02; 29,2</t>
+          <t>18,74; 29,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,48; 33,92</t>
+          <t>24,5; 34,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,36; 37,12</t>
+          <t>25,64; 37,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,23; 35,5</t>
+          <t>24,11; 35,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 36,45</t>
+          <t>24,46; 36,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>33,39; 42,76</t>
+          <t>33,54; 42,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,68; 28,03</t>
+          <t>20,75; 28,17</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>22,11; 29,57</t>
+          <t>22,08; 29,87</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>23,59; 31,39</t>
+          <t>23,45; 31,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>30,24; 37,12</t>
+          <t>30,53; 37,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,66; 18,73</t>
+          <t>13,05; 18,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,13; 18,02</t>
+          <t>12,45; 18,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,39</t>
+          <t>15,21; 21,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,82; 23,67</t>
+          <t>17,09; 23,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,2; 29,09</t>
+          <t>22,17; 28,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>23,38; 30,15</t>
+          <t>23,37; 30,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,57; 29,82</t>
+          <t>22,64; 29,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 31,42</t>
+          <t>9,71; 31,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,36; 22,98</t>
+          <t>18,36; 23,1</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,47</t>
+          <t>18,59; 23,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>20,05; 24,76</t>
+          <t>20,2; 25,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 26,22</t>
+          <t>13,61; 26,35</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,1; 20,77</t>
+          <t>15,19; 20,58</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,12</t>
+          <t>14,54; 20,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,14; 14,71</t>
+          <t>10,31; 14,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,01; 70,91</t>
+          <t>16,08; 72,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>23,59; 30,2</t>
+          <t>23,5; 29,97</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>21,43; 27,62</t>
+          <t>21,61; 27,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,37; 25,56</t>
+          <t>19,3; 25,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>24,21; 29,77</t>
+          <t>24,35; 30,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,25; 24,46</t>
+          <t>20,34; 24,57</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>18,69; 22,86</t>
+          <t>18,81; 23,19</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,58; 19,47</t>
+          <t>15,62; 19,66</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,37; 61,0</t>
+          <t>21,43; 58,96</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>14,68; 17,18</t>
+          <t>14,65; 17,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>16,44; 19,23</t>
+          <t>16,72; 19,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>15,46; 18,02</t>
+          <t>15,43; 17,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,1; 42,84</t>
+          <t>21,12; 46,85</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,72; 28,95</t>
+          <t>25,62; 28,75</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,51; 30,72</t>
+          <t>27,55; 30,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>24,49; 27,85</t>
+          <t>24,67; 27,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,68</t>
+          <t>23,57; 30,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,62</t>
+          <t>20,52; 22,62</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22,65; 24,66</t>
+          <t>22,61; 24,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>20,43; 22,54</t>
+          <t>20,46; 22,54</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>24,41; 36,23</t>
+          <t>24,18; 35,49</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población en el primer cuartil (49.019) de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45905</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62258</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>60570</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>68014</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62391</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>100167</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>101205</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>98234</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>108297</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>162424</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>161775</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>166248</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34342; 59647</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48320; 77308</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46778; 75614</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>54446; 85359</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50059; 78030</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>83983; 116602</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>84283; 117208</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>85223; 112988</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>90862; 128853</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>141650; 185836</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>140840; 183377</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>147319; 188561</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>77905</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>77274</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>67443</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>114027</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>155539</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>148652</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>116991</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>155840</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>233444</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>225926</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>184433</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>269867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>62887; 95930</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>61136; 97768</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>54075; 83352</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>93114; 138177</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>134488; 175452</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>129281; 171251</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>96815; 139395</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>137686; 173177</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>204118; 261495</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>194883; 253984</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>159468; 208716</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>240942; 298054</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41868</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51891</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>44000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>80739</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>94837</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>87465</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>65301</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>106912</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136705</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>139356</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109301</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>187651</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>31370; 55108</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39991; 67758</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>34067; 56516</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>68299; 96498</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>77529; 110806</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>71859; 105736</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50239; 81181</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>93286; 120067</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>116953; 159510</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>118515; 160484</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>92861; 131380</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>167243; 207857</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>50666</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>81067</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>85444</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>78009</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>102435</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>144722</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>142492</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>127986</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>153101</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>225789</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>227936</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>205995</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>37764; 64333</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>65458; 99924</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>69897; 101372</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>60341; 94735</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>86613; 119149</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>126030; 163582</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>122357; 162086</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80811; 163153</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>132127; 176582</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>199591; 251100</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>199421; 257271</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>149699; 241337</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>27778</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>47983</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30489</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>27461</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44622</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>84009</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>50439</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>51046</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>72400</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>131992</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>80929</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>78508</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18552; 37101</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>36383; 62233</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21546; 41369</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>20853; 36300</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32843; 58005</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68934; 99295</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38111; 63370</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>43765; 59313</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>58223; 87881</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>113167; 152002</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>65641; 96842</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>68360; 89223</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46029</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>60829</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>62236</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>77848</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>86920</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>83000</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>83958</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>97947</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>132949</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>143830</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>146194</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>175794</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>35315; 59711</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>47963; 74718</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>49314; 76833</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>65952; 91687</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>71322; 103106</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>67510; 98119</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>66810; 98846</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>86220; 110444</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>113911; 154623</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>122300; 165472</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>125749; 168882</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>160678; 196203</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>96636</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>98619</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>120590</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>126749</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>162747</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>186789</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>181111</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>195232</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>259383</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>285409</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>301701</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>321981</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>80259; 115667</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>82540; 119620</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>99842; 141996</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>105950; 147931</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>141523; 185017</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>162133; 209801</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>156495; 205575</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>82247; 266646</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>230034; 289492</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>252147; 316315</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>272301; 338737</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>199634; 386549</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>130891</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>132497</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>95579</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>359818</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>209581</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>202285</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>185213</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>192119</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>340472</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>334781</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>280792</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>551937</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>112969; 153102</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>113317; 156844</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>80252; 116334</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>149136; 676558</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>184115; 234853</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>178017; 228460</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>159465; 212720</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>174173; 217034</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>310647; 375192</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>301573; 371803</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>250587; 315518</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>351986; 968327</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>888</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>806</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1897</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1417</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1518</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1363</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2759</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>517680</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>612418</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>566350</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>932665</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>919072</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1037089</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>926711</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1025315</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1436752</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1649508</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>1493061</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1957981</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>479996; 560644</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>573040; 658524</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>523746; 609668</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>727315; 1613373</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>865860; 971428</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>980169; 1088966</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>874369; 984036</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>858752; 1118072</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1365870; 1505658</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1579453; 1724670</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1419595; 1563796</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>1713593; 2514992</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>